--- a/medicine/Sexualité et sexologie/Lobules_du_testicule/Lobules_du_testicule.xlsx
+++ b/medicine/Sexualité et sexologie/Lobules_du_testicule/Lobules_du_testicule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure glandulaire du testicule est constituée de nombreux lobules.
-Leur nombre, dans un seul testicule, est estimé par Berres à 250, et par Krause à 400[1]. Des études anatomiques ont démontré des chiffres de 250 à 290[2]. 
+Leur nombre, dans un seul testicule, est estimé par Berres à 250, et par Krause à 400. Des études anatomiques ont démontré des chiffres de 250 à 290. 
 Ils diffèrent en taille selon leur position, ceux du milieu de la glande étant plus gros et plus longs.
 Les lobules sont de forme conique, la base étant dirigée vers la circonférence de l'organe, l'apex vers le testicule médiastin.
 Chaque lobule est contenu dans l'un des intervalles entre les septa fibreux qui s'étendent entre le testicule du médiastin et la tunique albuginée, et se compose d'un à trois, ou plus, de minuscules tubes contournés, les tubuli seminiferi.
